--- a/Input data.xlsx
+++ b/Input data.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Study\VRP Python model\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\BKLogisTech\VRP-Inventory\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE6EE3B6-773D-4D92-963F-8BC086C49D3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F564B43A-E872-4FDD-B981-2ECE855D7754}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11040" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Supplier" sheetId="1" r:id="rId1"/>
@@ -307,8 +307,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -592,17 +593,17 @@
   <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="4" max="4" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" customWidth="1"/>
-    <col min="6" max="6" width="13.85546875" customWidth="1"/>
+    <col min="4" max="4" width="14.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.88671875" customWidth="1"/>
+    <col min="6" max="6" width="13.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -625,7 +626,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -636,10 +637,10 @@
         <v>40</v>
       </c>
       <c r="D2">
+        <v>500</v>
+      </c>
+      <c r="E2">
         <v>1590</v>
-      </c>
-      <c r="E2">
-        <v>0</v>
       </c>
       <c r="F2" t="s">
         <v>72</v>
@@ -648,7 +649,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -659,10 +660,10 @@
         <v>60</v>
       </c>
       <c r="D3">
+        <v>400</v>
+      </c>
+      <c r="E3">
         <v>1200</v>
-      </c>
-      <c r="E3">
-        <v>0</v>
       </c>
       <c r="F3" t="s">
         <v>72</v>
@@ -671,7 +672,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -682,10 +683,10 @@
         <v>100</v>
       </c>
       <c r="D4">
+        <v>450</v>
+      </c>
+      <c r="E4">
         <v>1350</v>
-      </c>
-      <c r="E4">
-        <v>0</v>
       </c>
       <c r="F4" t="s">
         <v>72</v>
@@ -704,18 +705,18 @@
   <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:G3"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="4" max="4" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.7109375" customWidth="1"/>
-    <col min="7" max="7" width="11.85546875" customWidth="1"/>
+    <col min="4" max="4" width="13.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.6640625" customWidth="1"/>
+    <col min="7" max="7" width="11.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -738,7 +739,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>12</v>
       </c>
@@ -749,7 +750,7 @@
         <v>35</v>
       </c>
       <c r="D2">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="E2" t="s">
         <v>73</v>
@@ -761,7 +762,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>13</v>
       </c>
@@ -772,7 +773,7 @@
         <v>75</v>
       </c>
       <c r="D3">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="E3" t="s">
         <v>73</v>
@@ -793,13 +794,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{589B9732-124D-4D93-9372-909A3A81F03A}">
   <dimension ref="A1:G3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J25" sqref="J25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -822,7 +823,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>50</v>
       </c>
@@ -845,7 +846,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>51</v>
       </c>
@@ -878,18 +879,18 @@
   <dimension ref="A1:G21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="O7" sqref="O7"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="4" max="4" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.109375" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -908,11 +909,11 @@
       <c r="F1" t="s">
         <v>11</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>52</v>
       </c>
@@ -931,11 +932,11 @@
       <c r="F2">
         <v>250</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>53</v>
       </c>
@@ -954,11 +955,11 @@
       <c r="F3">
         <v>350</v>
       </c>
-      <c r="G3" t="s">
+      <c r="G3" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>56</v>
       </c>
@@ -977,11 +978,11 @@
       <c r="F4">
         <v>150</v>
       </c>
-      <c r="G4" t="s">
+      <c r="G4" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>55</v>
       </c>
@@ -1000,11 +1001,11 @@
       <c r="F5">
         <v>230</v>
       </c>
-      <c r="G5" t="s">
+      <c r="G5" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>54</v>
       </c>
@@ -1023,11 +1024,11 @@
       <c r="F6">
         <v>160</v>
       </c>
-      <c r="G6" t="s">
+      <c r="G6" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>58</v>
       </c>
@@ -1046,11 +1047,11 @@
       <c r="F7">
         <v>290</v>
       </c>
-      <c r="G7" t="s">
+      <c r="G7" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>57</v>
       </c>
@@ -1069,11 +1070,11 @@
       <c r="F8">
         <v>254</v>
       </c>
-      <c r="G8" t="s">
+      <c r="G8" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>59</v>
       </c>
@@ -1092,11 +1093,11 @@
       <c r="F9">
         <v>203</v>
       </c>
-      <c r="G9" t="s">
+      <c r="G9" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>60</v>
       </c>
@@ -1115,11 +1116,11 @@
       <c r="F10">
         <v>316</v>
       </c>
-      <c r="G10" t="s">
+      <c r="G10" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>61</v>
       </c>
@@ -1138,11 +1139,11 @@
       <c r="F11">
         <v>395</v>
       </c>
-      <c r="G11" t="s">
+      <c r="G11" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>62</v>
       </c>
@@ -1161,11 +1162,11 @@
       <c r="F12">
         <v>293</v>
       </c>
-      <c r="G12" t="s">
+      <c r="G12" s="1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>63</v>
       </c>
@@ -1184,11 +1185,11 @@
       <c r="F13">
         <v>256</v>
       </c>
-      <c r="G13" t="s">
+      <c r="G13" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>64</v>
       </c>
@@ -1207,11 +1208,11 @@
       <c r="F14">
         <v>178</v>
       </c>
-      <c r="G14" t="s">
+      <c r="G14" s="1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>65</v>
       </c>
@@ -1230,11 +1231,11 @@
       <c r="F15">
         <v>210</v>
       </c>
-      <c r="G15" t="s">
+      <c r="G15" s="1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>66</v>
       </c>
@@ -1253,11 +1254,11 @@
       <c r="F16">
         <v>298</v>
       </c>
-      <c r="G16" t="s">
+      <c r="G16" s="1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>67</v>
       </c>
@@ -1276,11 +1277,11 @@
       <c r="F17">
         <v>195</v>
       </c>
-      <c r="G17" t="s">
+      <c r="G17" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>68</v>
       </c>
@@ -1299,11 +1300,11 @@
       <c r="F18">
         <v>355</v>
       </c>
-      <c r="G18" t="s">
+      <c r="G18" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>69</v>
       </c>
@@ -1322,11 +1323,11 @@
       <c r="F19">
         <v>160</v>
       </c>
-      <c r="G19" t="s">
+      <c r="G19" s="1" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>70</v>
       </c>
@@ -1345,11 +1346,11 @@
       <c r="F20">
         <v>338</v>
       </c>
-      <c r="G20" t="s">
+      <c r="G20" s="1" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>71</v>
       </c>
@@ -1368,7 +1369,7 @@
       <c r="F21">
         <v>334</v>
       </c>
-      <c r="G21" t="s">
+      <c r="G21" s="1" t="s">
         <v>34</v>
       </c>
     </row>
@@ -1386,9 +1387,9 @@
       <selection sqref="A1:B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>36</v>
       </c>
@@ -1396,7 +1397,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>38</v>
       </c>
@@ -1404,7 +1405,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>39</v>
       </c>
@@ -1412,7 +1413,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>40</v>
       </c>
@@ -1420,7 +1421,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>41</v>
       </c>
@@ -1428,7 +1429,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>42</v>
       </c>
@@ -1445,16 +1446,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19CBB48C-7CAD-477C-831A-D6459B441741}">
   <dimension ref="A1:F6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I19" sqref="I19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="10.7109375" customWidth="1"/>
+    <col min="3" max="3" width="10.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>36</v>
       </c>
@@ -1474,7 +1475,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>43</v>
       </c>
@@ -1494,7 +1495,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>44</v>
       </c>
@@ -1514,7 +1515,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>45</v>
       </c>
@@ -1534,7 +1535,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>46</v>
       </c>
@@ -1554,7 +1555,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>47</v>
       </c>

--- a/Input data.xlsx
+++ b/Input data.xlsx
@@ -1,24 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28025"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\BKLogisTech\VRP-Inventory\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F564B43A-E872-4FDD-B981-2ECE855D7754}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3ECF6D6-0549-464D-BCC4-E58146E1570C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Supplier" sheetId="1" r:id="rId1"/>
     <sheet name="Distributor" sheetId="2" r:id="rId2"/>
     <sheet name="returnDistributor" sheetId="6" r:id="rId3"/>
     <sheet name="Retailer" sheetId="3" r:id="rId4"/>
-    <sheet name="VehicleE1" sheetId="4" r:id="rId5"/>
-    <sheet name="VehicleE2" sheetId="5" r:id="rId6"/>
+    <sheet name="Sheet1" sheetId="7" r:id="rId5"/>
+    <sheet name="VehicleE1" sheetId="4" r:id="rId6"/>
+    <sheet name="VehicleE2" sheetId="5" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -876,10 +877,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36B68AA6-F384-4ADA-9945-5B878655B71F}">
-  <dimension ref="A1:G21"/>
+  <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+      <selection activeCell="A12" sqref="A12:XFD16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1143,236 +1144,6 @@
         <v>24</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>62</v>
-      </c>
-      <c r="B12">
-        <v>50</v>
-      </c>
-      <c r="C12">
-        <v>34</v>
-      </c>
-      <c r="D12" t="s">
-        <v>14</v>
-      </c>
-      <c r="E12">
-        <v>0</v>
-      </c>
-      <c r="F12">
-        <v>293</v>
-      </c>
-      <c r="G12" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>63</v>
-      </c>
-      <c r="B13">
-        <v>86</v>
-      </c>
-      <c r="C13">
-        <v>42</v>
-      </c>
-      <c r="D13" t="s">
-        <v>14</v>
-      </c>
-      <c r="E13">
-        <v>0</v>
-      </c>
-      <c r="F13">
-        <v>256</v>
-      </c>
-      <c r="G13" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>64</v>
-      </c>
-      <c r="B14">
-        <v>12</v>
-      </c>
-      <c r="C14">
-        <v>82</v>
-      </c>
-      <c r="D14" t="s">
-        <v>14</v>
-      </c>
-      <c r="E14">
-        <v>0</v>
-      </c>
-      <c r="F14">
-        <v>178</v>
-      </c>
-      <c r="G14" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
-        <v>65</v>
-      </c>
-      <c r="B15">
-        <v>30</v>
-      </c>
-      <c r="C15">
-        <v>37</v>
-      </c>
-      <c r="D15" t="s">
-        <v>14</v>
-      </c>
-      <c r="E15">
-        <v>0</v>
-      </c>
-      <c r="F15">
-        <v>210</v>
-      </c>
-      <c r="G15" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
-        <v>66</v>
-      </c>
-      <c r="B16">
-        <v>63</v>
-      </c>
-      <c r="C16">
-        <v>72</v>
-      </c>
-      <c r="D16" t="s">
-        <v>14</v>
-      </c>
-      <c r="E16">
-        <v>0</v>
-      </c>
-      <c r="F16">
-        <v>298</v>
-      </c>
-      <c r="G16" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
-        <v>67</v>
-      </c>
-      <c r="B17">
-        <v>97</v>
-      </c>
-      <c r="C17">
-        <v>34</v>
-      </c>
-      <c r="D17" t="s">
-        <v>14</v>
-      </c>
-      <c r="E17">
-        <v>0</v>
-      </c>
-      <c r="F17">
-        <v>195</v>
-      </c>
-      <c r="G17" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
-        <v>68</v>
-      </c>
-      <c r="B18">
-        <v>22</v>
-      </c>
-      <c r="C18">
-        <v>36</v>
-      </c>
-      <c r="D18" t="s">
-        <v>14</v>
-      </c>
-      <c r="E18">
-        <v>0</v>
-      </c>
-      <c r="F18">
-        <v>355</v>
-      </c>
-      <c r="G18" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>69</v>
-      </c>
-      <c r="B19">
-        <v>32</v>
-      </c>
-      <c r="C19">
-        <v>72</v>
-      </c>
-      <c r="D19" t="s">
-        <v>14</v>
-      </c>
-      <c r="E19">
-        <v>0</v>
-      </c>
-      <c r="F19">
-        <v>160</v>
-      </c>
-      <c r="G19" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
-        <v>70</v>
-      </c>
-      <c r="B20">
-        <v>73</v>
-      </c>
-      <c r="C20">
-        <v>93</v>
-      </c>
-      <c r="D20" t="s">
-        <v>14</v>
-      </c>
-      <c r="E20">
-        <v>0</v>
-      </c>
-      <c r="F20">
-        <v>338</v>
-      </c>
-      <c r="G20" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
-        <v>71</v>
-      </c>
-      <c r="B21">
-        <v>75</v>
-      </c>
-      <c r="C21">
-        <v>26</v>
-      </c>
-      <c r="D21" t="s">
-        <v>14</v>
-      </c>
-      <c r="E21">
-        <v>0</v>
-      </c>
-      <c r="F21">
-        <v>334</v>
-      </c>
-      <c r="G21" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1380,6 +1151,251 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F05BD77-6C84-43D3-A6E1-0D71F4CA0EB9}">
+  <dimension ref="A1:G10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:XFD5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B1">
+        <v>50</v>
+      </c>
+      <c r="C1">
+        <v>34</v>
+      </c>
+      <c r="D1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1">
+        <v>0</v>
+      </c>
+      <c r="F1">
+        <v>293</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>63</v>
+      </c>
+      <c r="B2">
+        <v>86</v>
+      </c>
+      <c r="C2">
+        <v>42</v>
+      </c>
+      <c r="D2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>256</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>64</v>
+      </c>
+      <c r="B3">
+        <v>12</v>
+      </c>
+      <c r="C3">
+        <v>82</v>
+      </c>
+      <c r="D3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>178</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>65</v>
+      </c>
+      <c r="B4">
+        <v>30</v>
+      </c>
+      <c r="C4">
+        <v>37</v>
+      </c>
+      <c r="D4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>210</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>66</v>
+      </c>
+      <c r="B5">
+        <v>63</v>
+      </c>
+      <c r="C5">
+        <v>72</v>
+      </c>
+      <c r="D5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>298</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>67</v>
+      </c>
+      <c r="B6">
+        <v>97</v>
+      </c>
+      <c r="C6">
+        <v>34</v>
+      </c>
+      <c r="D6" t="s">
+        <v>14</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>195</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>68</v>
+      </c>
+      <c r="B7">
+        <v>22</v>
+      </c>
+      <c r="C7">
+        <v>36</v>
+      </c>
+      <c r="D7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>355</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>69</v>
+      </c>
+      <c r="B8">
+        <v>32</v>
+      </c>
+      <c r="C8">
+        <v>72</v>
+      </c>
+      <c r="D8" t="s">
+        <v>14</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>160</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>70</v>
+      </c>
+      <c r="B9">
+        <v>73</v>
+      </c>
+      <c r="C9">
+        <v>93</v>
+      </c>
+      <c r="D9" t="s">
+        <v>14</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>338</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>71</v>
+      </c>
+      <c r="B10">
+        <v>75</v>
+      </c>
+      <c r="C10">
+        <v>26</v>
+      </c>
+      <c r="D10" t="s">
+        <v>14</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>334</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D31CCFA4-3D80-4DC9-BDAB-28611B74A810}">
   <dimension ref="A1:B6"/>
   <sheetViews>
@@ -1442,11 +1458,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19CBB48C-7CAD-477C-831A-D6459B441741}">
   <dimension ref="A1:F6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I19" sqref="I19"/>
     </sheetView>
   </sheetViews>

--- a/Input data.xlsx
+++ b/Input data.xlsx
@@ -5,21 +5,20 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\BKLogisTech\VRP-Inventory\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Study\VRP Python model\VRP-Inventory\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3ECF6D6-0549-464D-BCC4-E58146E1570C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7A172C8-D631-4FA7-AF91-3AF13402869F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Supplier" sheetId="1" r:id="rId1"/>
     <sheet name="Distributor" sheetId="2" r:id="rId2"/>
     <sheet name="returnDistributor" sheetId="6" r:id="rId3"/>
     <sheet name="Retailer" sheetId="3" r:id="rId4"/>
-    <sheet name="Sheet1" sheetId="7" r:id="rId5"/>
-    <sheet name="VehicleE1" sheetId="4" r:id="rId6"/>
-    <sheet name="VehicleE2" sheetId="5" r:id="rId7"/>
+    <sheet name="VehicleE1" sheetId="4" r:id="rId5"/>
+    <sheet name="VehicleE2" sheetId="5" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -42,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="75">
   <si>
     <t>NodeID</t>
   </si>
@@ -119,36 +118,6 @@
     <t>228,202,223</t>
   </si>
   <si>
-    <t>157,217,152</t>
-  </si>
-  <si>
-    <t>153,150,117</t>
-  </si>
-  <si>
-    <t>171,196,206</t>
-  </si>
-  <si>
-    <t>238,114,192</t>
-  </si>
-  <si>
-    <t>219,106,116</t>
-  </si>
-  <si>
-    <t>77,227,55</t>
-  </si>
-  <si>
-    <t>159,151,227</t>
-  </si>
-  <si>
-    <t>237,84,218</t>
-  </si>
-  <si>
-    <t>55,173,162</t>
-  </si>
-  <si>
-    <t>136,210,232</t>
-  </si>
-  <si>
     <t>MinOrder</t>
   </si>
   <si>
@@ -267,6 +236,36 @@
   </si>
   <si>
     <t>returnDistributor</t>
+  </si>
+  <si>
+    <t>VE16</t>
+  </si>
+  <si>
+    <t>VE17</t>
+  </si>
+  <si>
+    <t>VE18</t>
+  </si>
+  <si>
+    <t>VE19</t>
+  </si>
+  <si>
+    <t>VE20</t>
+  </si>
+  <si>
+    <t>VE26</t>
+  </si>
+  <si>
+    <t>VE27</t>
+  </si>
+  <si>
+    <t>VE28</t>
+  </si>
+  <si>
+    <t>VE29</t>
+  </si>
+  <si>
+    <t>VE30</t>
   </si>
 </sst>
 </file>
@@ -593,18 +592,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="4" width="14.88671875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.88671875" customWidth="1"/>
-    <col min="6" max="6" width="13.88671875" customWidth="1"/>
+    <col min="4" max="4" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" customWidth="1"/>
+    <col min="6" max="6" width="13.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -624,10 +623,10 @@
         <v>4</v>
       </c>
       <c r="G1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -638,19 +637,19 @@
         <v>40</v>
       </c>
       <c r="D2">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="E2">
-        <v>1590</v>
+        <v>4000</v>
       </c>
       <c r="F2" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
       <c r="G2">
         <v>500</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -661,36 +660,36 @@
         <v>60</v>
       </c>
       <c r="D3">
-        <v>400</v>
+        <v>1000</v>
       </c>
       <c r="E3">
-        <v>1200</v>
+        <v>4000</v>
       </c>
       <c r="F3" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
       <c r="G3">
         <v>600</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>7</v>
       </c>
       <c r="B4">
-        <v>45</v>
+        <v>20</v>
       </c>
       <c r="C4">
         <v>100</v>
       </c>
       <c r="D4">
-        <v>450</v>
+        <v>1000</v>
       </c>
       <c r="E4">
-        <v>1350</v>
+        <v>4000</v>
       </c>
       <c r="F4" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
       <c r="G4">
         <v>800</v>
@@ -706,18 +705,18 @@
   <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="E30" sqref="E30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="4" width="13.5546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.6640625" customWidth="1"/>
-    <col min="7" max="7" width="11.88671875" customWidth="1"/>
+    <col min="4" max="4" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.7109375" customWidth="1"/>
+    <col min="7" max="7" width="11.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -740,21 +739,21 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>12</v>
       </c>
       <c r="B2">
-        <v>35</v>
+        <v>21.015204121036099</v>
       </c>
       <c r="C2">
-        <v>35</v>
+        <v>105.852945080544</v>
       </c>
       <c r="D2">
         <v>1000</v>
       </c>
       <c r="E2" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="F2">
         <v>0</v>
@@ -763,21 +762,21 @@
         <v>400</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>13</v>
       </c>
       <c r="B3">
-        <v>50</v>
+        <v>20.930667881928901</v>
       </c>
       <c r="C3">
-        <v>75</v>
+        <v>105.85567346705</v>
       </c>
       <c r="D3">
         <v>1000</v>
       </c>
       <c r="E3" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="F3">
         <v>0</v>
@@ -796,12 +795,12 @@
   <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J25" sqref="J25"/>
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -824,21 +823,21 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="B2">
-        <v>35</v>
+        <v>21.015204121036099</v>
       </c>
       <c r="C2">
-        <v>35</v>
+        <v>105.852945080544</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2" t="s">
-        <v>74</v>
+        <v>64</v>
       </c>
       <c r="F2">
         <v>0</v>
@@ -847,21 +846,21 @@
         <v>400</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="B3">
-        <v>50</v>
+        <v>20.930667881928901</v>
       </c>
       <c r="C3">
-        <v>75</v>
+        <v>105.85567346705</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3" t="s">
-        <v>74</v>
+        <v>64</v>
       </c>
       <c r="F3">
         <v>0</v>
@@ -877,21 +876,21 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36B68AA6-F384-4ADA-9945-5B878655B71F}">
-  <dimension ref="A1:G11"/>
+  <dimension ref="A1:G21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A12" sqref="A12:XFD16"/>
+      <selection activeCell="B2" sqref="B2:C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="4" width="12.5546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.140625" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -914,15 +913,15 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="B2">
-        <v>41</v>
+        <v>21.008150737853001</v>
       </c>
       <c r="C2">
-        <v>49</v>
+        <v>105.858842007528</v>
       </c>
       <c r="D2" t="s">
         <v>14</v>
@@ -937,15 +936,15 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="B3">
-        <v>42</v>
+        <v>21.010207869502299</v>
       </c>
       <c r="C3">
-        <v>47</v>
+        <v>105.810025480544</v>
       </c>
       <c r="D3" t="s">
         <v>14</v>
@@ -960,15 +959,15 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="B4">
-        <v>55</v>
+        <v>21.008978304576701</v>
       </c>
       <c r="C4">
-        <v>60</v>
+        <v>105.857240195888</v>
       </c>
       <c r="D4" t="s">
         <v>14</v>
@@ -983,15 +982,15 @@
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="B5">
-        <v>30</v>
+        <v>21.0039964041944</v>
       </c>
       <c r="C5">
-        <v>60</v>
+        <v>105.85411378239699</v>
       </c>
       <c r="D5" t="s">
         <v>14</v>
@@ -1006,15 +1005,15 @@
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="B6">
-        <v>20</v>
+        <v>20.984456606027301</v>
       </c>
       <c r="C6">
-        <v>65</v>
+        <v>105.87360392744399</v>
       </c>
       <c r="D6" t="s">
         <v>14</v>
@@ -1029,15 +1028,15 @@
         <v>19</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="B7">
-        <v>84</v>
+        <v>21.0017957191207</v>
       </c>
       <c r="C7">
-        <v>82</v>
+        <v>105.799579195888</v>
       </c>
       <c r="D7" t="s">
         <v>14</v>
@@ -1052,15 +1051,15 @@
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="B8">
-        <v>95</v>
+        <v>21.001291421866799</v>
       </c>
       <c r="C8">
-        <v>12</v>
+        <v>105.863039407527</v>
       </c>
       <c r="D8" t="s">
         <v>14</v>
@@ -1075,15 +1074,15 @@
         <v>21</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="B9">
-        <v>40</v>
+        <v>20.960491896202001</v>
       </c>
       <c r="C9">
-        <v>49</v>
+        <v>105.842394611232</v>
       </c>
       <c r="D9" t="s">
         <v>14</v>
@@ -1098,15 +1097,15 @@
         <v>22</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="B10">
-        <v>43</v>
+        <v>20.999487724709098</v>
       </c>
       <c r="C10">
-        <v>40</v>
+        <v>105.86259679403599</v>
       </c>
       <c r="D10" t="s">
         <v>14</v>
@@ -1121,15 +1120,15 @@
         <v>23</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="B11">
-        <v>77</v>
+        <v>20.986845028609501</v>
       </c>
       <c r="C11">
-        <v>66</v>
+        <v>105.806136322871</v>
       </c>
       <c r="D11" t="s">
         <v>14</v>
@@ -1141,6 +1140,236 @@
         <v>395</v>
       </c>
       <c r="G11" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>52</v>
+      </c>
+      <c r="B12">
+        <v>21.030506069785002</v>
+      </c>
+      <c r="C12">
+        <v>105.8602525652</v>
+      </c>
+      <c r="D12" t="s">
+        <v>14</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>250</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>53</v>
+      </c>
+      <c r="B13">
+        <v>20.988343269980099</v>
+      </c>
+      <c r="C13">
+        <v>105.840612838216</v>
+      </c>
+      <c r="D13" t="s">
+        <v>14</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <v>350</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>54</v>
+      </c>
+      <c r="B14">
+        <v>21.047644334862198</v>
+      </c>
+      <c r="C14">
+        <v>105.748959102572</v>
+      </c>
+      <c r="D14" t="s">
+        <v>14</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14">
+        <v>150</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>55</v>
+      </c>
+      <c r="B15">
+        <v>21.013596717808799</v>
+      </c>
+      <c r="C15">
+        <v>105.85497190938</v>
+      </c>
+      <c r="D15" t="s">
+        <v>14</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>230</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>56</v>
+      </c>
+      <c r="B16">
+        <v>21.089713154056899</v>
+      </c>
+      <c r="C16">
+        <v>105.803157824726</v>
+      </c>
+      <c r="D16" t="s">
+        <v>14</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="F16">
+        <v>160</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>57</v>
+      </c>
+      <c r="B17">
+        <v>21.039804656227801</v>
+      </c>
+      <c r="C17">
+        <v>105.90595543025</v>
+      </c>
+      <c r="D17" t="s">
+        <v>14</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>290</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>58</v>
+      </c>
+      <c r="B18">
+        <v>21.0274396206772</v>
+      </c>
+      <c r="C18">
+        <v>105.84279283821699</v>
+      </c>
+      <c r="D18" t="s">
+        <v>14</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>254</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>59</v>
+      </c>
+      <c r="B19">
+        <v>21.0509553112616</v>
+      </c>
+      <c r="C19">
+        <v>105.895518080545</v>
+      </c>
+      <c r="D19" t="s">
+        <v>14</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>203</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>60</v>
+      </c>
+      <c r="B20">
+        <v>21.014933346321499</v>
+      </c>
+      <c r="C20">
+        <v>105.857539995888</v>
+      </c>
+      <c r="D20" t="s">
+        <v>14</v>
+      </c>
+      <c r="E20">
+        <v>0</v>
+      </c>
+      <c r="F20">
+        <v>316</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>61</v>
+      </c>
+      <c r="B21">
+        <v>21.000114272781701</v>
+      </c>
+      <c r="C21">
+        <v>105.874469097741</v>
+      </c>
+      <c r="D21" t="s">
+        <v>14</v>
+      </c>
+      <c r="E21">
+        <v>0</v>
+      </c>
+      <c r="F21">
+        <v>395</v>
+      </c>
+      <c r="G21" s="1" t="s">
         <v>24</v>
       </c>
     </row>
@@ -1151,332 +1380,128 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F05BD77-6C84-43D3-A6E1-0D71F4CA0EB9}">
-  <dimension ref="A1:G10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D31CCFA4-3D80-4DC9-BDAB-28611B74A810}">
+  <dimension ref="A1:B11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>62</v>
-      </c>
-      <c r="B1">
-        <v>50</v>
-      </c>
-      <c r="C1">
-        <v>34</v>
-      </c>
-      <c r="D1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E1">
-        <v>0</v>
-      </c>
-      <c r="F1">
-        <v>293</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+        <v>26</v>
+      </c>
+      <c r="B1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>63</v>
+        <v>28</v>
       </c>
       <c r="B2">
-        <v>86</v>
-      </c>
-      <c r="C2">
-        <v>42</v>
-      </c>
-      <c r="D2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E2">
-        <v>0</v>
-      </c>
-      <c r="F2">
-        <v>256</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>64</v>
+        <v>29</v>
       </c>
       <c r="B3">
-        <v>12</v>
-      </c>
-      <c r="C3">
-        <v>82</v>
-      </c>
-      <c r="D3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E3">
-        <v>0</v>
-      </c>
-      <c r="F3">
-        <v>178</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B4">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>31</v>
+      </c>
+      <c r="B5">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>32</v>
+      </c>
+      <c r="B6">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
         <v>65</v>
       </c>
-      <c r="B4">
-        <v>30</v>
-      </c>
-      <c r="C4">
-        <v>37</v>
-      </c>
-      <c r="D4" t="s">
-        <v>14</v>
-      </c>
-      <c r="E4">
-        <v>0</v>
-      </c>
-      <c r="F4">
-        <v>210</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
+      <c r="B7">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
         <v>66</v>
       </c>
-      <c r="B5">
-        <v>63</v>
-      </c>
-      <c r="C5">
-        <v>72</v>
-      </c>
-      <c r="D5" t="s">
-        <v>14</v>
-      </c>
-      <c r="E5">
-        <v>0</v>
-      </c>
-      <c r="F5">
-        <v>298</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
+      <c r="B8">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
         <v>67</v>
       </c>
-      <c r="B6">
-        <v>97</v>
-      </c>
-      <c r="C6">
-        <v>34</v>
-      </c>
-      <c r="D6" t="s">
-        <v>14</v>
-      </c>
-      <c r="E6">
-        <v>0</v>
-      </c>
-      <c r="F6">
-        <v>195</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
+      <c r="B9">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
         <v>68</v>
       </c>
-      <c r="B7">
-        <v>22</v>
-      </c>
-      <c r="C7">
-        <v>36</v>
-      </c>
-      <c r="D7" t="s">
-        <v>14</v>
-      </c>
-      <c r="E7">
-        <v>0</v>
-      </c>
-      <c r="F7">
-        <v>355</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
+      <c r="B10">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
         <v>69</v>
       </c>
-      <c r="B8">
-        <v>32</v>
-      </c>
-      <c r="C8">
-        <v>72</v>
-      </c>
-      <c r="D8" t="s">
-        <v>14</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
-      </c>
-      <c r="F8">
-        <v>160</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>70</v>
-      </c>
-      <c r="B9">
-        <v>73</v>
-      </c>
-      <c r="C9">
-        <v>93</v>
-      </c>
-      <c r="D9" t="s">
-        <v>14</v>
-      </c>
-      <c r="E9">
-        <v>0</v>
-      </c>
-      <c r="F9">
-        <v>338</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>71</v>
-      </c>
-      <c r="B10">
-        <v>75</v>
-      </c>
-      <c r="C10">
-        <v>26</v>
-      </c>
-      <c r="D10" t="s">
-        <v>14</v>
-      </c>
-      <c r="E10">
-        <v>0</v>
-      </c>
-      <c r="F10">
-        <v>334</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>34</v>
+      <c r="B11">
+        <v>1000</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D31CCFA4-3D80-4DC9-BDAB-28611B74A810}">
-  <dimension ref="A1:B6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19CBB48C-7CAD-477C-831A-D6459B441741}">
+  <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:B6"/>
+      <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>38</v>
-      </c>
-      <c r="B2">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>39</v>
-      </c>
-      <c r="B3">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>40</v>
-      </c>
-      <c r="B4">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>41</v>
-      </c>
-      <c r="B5">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>42</v>
-      </c>
-      <c r="B6">
-        <v>1000</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19CBB48C-7CAD-477C-831A-D6459B441741}">
-  <dimension ref="A1:F6"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I19" sqref="I19"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="10.6640625" customWidth="1"/>
+    <col min="3" max="3" width="10.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="B1" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="C1" t="s">
         <v>10</v>
@@ -1485,15 +1510,15 @@
         <v>11</v>
       </c>
       <c r="E1" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="F1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="B2">
         <v>1000</v>
@@ -1508,12 +1533,12 @@
         <v>12</v>
       </c>
       <c r="F2" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="B3">
         <v>1000</v>
@@ -1528,12 +1553,12 @@
         <v>12</v>
       </c>
       <c r="F3" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="B4">
         <v>1000</v>
@@ -1548,12 +1573,12 @@
         <v>12</v>
       </c>
       <c r="F4" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="B5">
         <v>1000</v>
@@ -1568,12 +1593,12 @@
         <v>13</v>
       </c>
       <c r="F5" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="B6">
         <v>1000</v>
@@ -1588,10 +1613,111 @@
         <v>13</v>
       </c>
       <c r="F6" t="s">
-        <v>51</v>
+        <v>41</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>70</v>
+      </c>
+      <c r="B7">
+        <v>1000</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <v>400</v>
+      </c>
+      <c r="E7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F7" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>71</v>
+      </c>
+      <c r="B8">
+        <v>1000</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <v>400</v>
+      </c>
+      <c r="E8" t="s">
+        <v>12</v>
+      </c>
+      <c r="F8" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>72</v>
+      </c>
+      <c r="B9">
+        <v>1000</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <v>400</v>
+      </c>
+      <c r="E9" t="s">
+        <v>12</v>
+      </c>
+      <c r="F9" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>73</v>
+      </c>
+      <c r="B10">
+        <v>1000</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10">
+        <v>400</v>
+      </c>
+      <c r="E10" t="s">
+        <v>13</v>
+      </c>
+      <c r="F10" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>74</v>
+      </c>
+      <c r="B11">
+        <v>1000</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="D11">
+        <v>400</v>
+      </c>
+      <c r="E11" t="s">
+        <v>13</v>
+      </c>
+      <c r="F11" t="s">
+        <v>41</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>